--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.420738220214844</v>
+        <v>2.029781818389893</v>
       </c>
       <c r="B2" t="n">
-        <v>2.93963623046875</v>
+        <v>2.956347942352295</v>
       </c>
       <c r="C2" t="n">
-        <v>3.268634557723999</v>
+        <v>3.055953502655029</v>
       </c>
       <c r="D2" t="n">
-        <v>3.683520078659058</v>
+        <v>4.803726196289062</v>
       </c>
       <c r="E2" t="n">
-        <v>2.429891586303711</v>
+        <v>2.005634069442749</v>
       </c>
       <c r="F2" t="n">
-        <v>3.32822585105896</v>
+        <v>1.251472353935242</v>
       </c>
       <c r="G2" t="n">
-        <v>2.442490339279175</v>
+        <v>1.146654486656189</v>
       </c>
       <c r="H2" t="n">
-        <v>2.244879961013794</v>
+        <v>1.008466958999634</v>
       </c>
       <c r="I2" t="n">
-        <v>2.337420463562012</v>
+        <v>1.926065444946289</v>
       </c>
       <c r="J2" t="n">
-        <v>2.304718017578125</v>
+        <v>2.001630306243896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.826600551605225</v>
+        <v>1.98620069026947</v>
       </c>
       <c r="B3" t="n">
-        <v>3.135417938232422</v>
+        <v>3.018794298171997</v>
       </c>
       <c r="C3" t="n">
-        <v>3.352670907974243</v>
+        <v>4.078019618988037</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08276104927063</v>
+        <v>2.880384206771851</v>
       </c>
       <c r="E3" t="n">
-        <v>2.219701290130615</v>
+        <v>1.081175327301025</v>
       </c>
       <c r="F3" t="n">
-        <v>3.295737266540527</v>
+        <v>4.100807666778564</v>
       </c>
       <c r="G3" t="n">
-        <v>3.228343963623047</v>
+        <v>1.005810976028442</v>
       </c>
       <c r="H3" t="n">
-        <v>2.594892978668213</v>
+        <v>1.76443612575531</v>
       </c>
       <c r="I3" t="n">
-        <v>1.981405735015869</v>
+        <v>2.058218955993652</v>
       </c>
       <c r="J3" t="n">
-        <v>3.058430910110474</v>
+        <v>3.193142175674438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.599948406219482</v>
+        <v>4.81432056427002</v>
       </c>
       <c r="B4" t="n">
-        <v>2.465386867523193</v>
+        <v>1.013010621070862</v>
       </c>
       <c r="C4" t="n">
-        <v>2.039128541946411</v>
+        <v>1.191341519355774</v>
       </c>
       <c r="D4" t="n">
-        <v>1.962583065032959</v>
+        <v>1.523341178894043</v>
       </c>
       <c r="E4" t="n">
-        <v>3.830505609512329</v>
+        <v>3.970080614089966</v>
       </c>
       <c r="F4" t="n">
-        <v>3.241933584213257</v>
+        <v>1.017806053161621</v>
       </c>
       <c r="G4" t="n">
-        <v>2.32944917678833</v>
+        <v>1.153630375862122</v>
       </c>
       <c r="H4" t="n">
-        <v>3.652167320251465</v>
+        <v>2.014208793640137</v>
       </c>
       <c r="I4" t="n">
-        <v>3.202497720718384</v>
+        <v>2.06281852722168</v>
       </c>
       <c r="J4" t="n">
-        <v>1.677803039550781</v>
+        <v>2.010627746582031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.495041847229004</v>
+        <v>2.071037292480469</v>
       </c>
       <c r="B5" t="n">
-        <v>2.379080533981323</v>
+        <v>1.046423435211182</v>
       </c>
       <c r="C5" t="n">
-        <v>3.167571067810059</v>
+        <v>2.000411510467529</v>
       </c>
       <c r="D5" t="n">
-        <v>2.221703052520752</v>
+        <v>1.204464197158813</v>
       </c>
       <c r="E5" t="n">
-        <v>3.220989227294922</v>
+        <v>2.340309619903564</v>
       </c>
       <c r="F5" t="n">
-        <v>2.759843587875366</v>
+        <v>1.927243828773499</v>
       </c>
       <c r="G5" t="n">
-        <v>3.227084398269653</v>
+        <v>1.003650546073914</v>
       </c>
       <c r="H5" t="n">
-        <v>3.763143539428711</v>
+        <v>4.901889801025391</v>
       </c>
       <c r="I5" t="n">
-        <v>1.981269359588623</v>
+        <v>1.008897185325623</v>
       </c>
       <c r="J5" t="n">
-        <v>2.538438558578491</v>
+        <v>3.037704467773438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.669458866119385</v>
+        <v>1.956940650939941</v>
       </c>
       <c r="B6" t="n">
-        <v>2.837778329849243</v>
+        <v>2.196496963500977</v>
       </c>
       <c r="C6" t="n">
-        <v>3.215561628341675</v>
+        <v>4.01207447052002</v>
       </c>
       <c r="D6" t="n">
-        <v>1.798746824264526</v>
+        <v>1.010438561439514</v>
       </c>
       <c r="E6" t="n">
-        <v>3.479843854904175</v>
+        <v>4.010591983795166</v>
       </c>
       <c r="F6" t="n">
-        <v>2.904871463775635</v>
+        <v>1.029597520828247</v>
       </c>
       <c r="G6" t="n">
-        <v>3.747979879379272</v>
+        <v>4.161048412322998</v>
       </c>
       <c r="H6" t="n">
-        <v>3.380045175552368</v>
+        <v>4.057469844818115</v>
       </c>
       <c r="I6" t="n">
-        <v>3.706629991531372</v>
+        <v>4.644775867462158</v>
       </c>
       <c r="J6" t="n">
-        <v>1.492919325828552</v>
+        <v>1.143594026565552</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.029781818389893</v>
+        <v>1.756928443908691</v>
       </c>
       <c r="B2" t="n">
-        <v>2.956347942352295</v>
+        <v>4.308184623718262</v>
       </c>
       <c r="C2" t="n">
-        <v>3.055953502655029</v>
+        <v>3.458043575286865</v>
       </c>
       <c r="D2" t="n">
-        <v>4.803726196289062</v>
+        <v>4.515835762023926</v>
       </c>
       <c r="E2" t="n">
-        <v>2.005634069442749</v>
+        <v>1.907290935516357</v>
       </c>
       <c r="F2" t="n">
-        <v>1.251472353935242</v>
+        <v>2.034539699554443</v>
       </c>
       <c r="G2" t="n">
-        <v>1.146654486656189</v>
+        <v>1.376038432121277</v>
       </c>
       <c r="H2" t="n">
-        <v>1.008466958999634</v>
+        <v>1.650940656661987</v>
       </c>
       <c r="I2" t="n">
-        <v>1.926065444946289</v>
+        <v>2.138889789581299</v>
       </c>
       <c r="J2" t="n">
-        <v>2.001630306243896</v>
+        <v>1.312796354293823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.98620069026947</v>
+        <v>1.285240173339844</v>
       </c>
       <c r="B3" t="n">
-        <v>3.018794298171997</v>
+        <v>2.425625324249268</v>
       </c>
       <c r="C3" t="n">
-        <v>4.078019618988037</v>
+        <v>3.936080694198608</v>
       </c>
       <c r="D3" t="n">
-        <v>2.880384206771851</v>
+        <v>3.266763925552368</v>
       </c>
       <c r="E3" t="n">
-        <v>1.081175327301025</v>
+        <v>4.399188041687012</v>
       </c>
       <c r="F3" t="n">
-        <v>4.100807666778564</v>
+        <v>4.189265251159668</v>
       </c>
       <c r="G3" t="n">
-        <v>1.005810976028442</v>
+        <v>1.41096293926239</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76443612575531</v>
+        <v>1.501993417739868</v>
       </c>
       <c r="I3" t="n">
-        <v>2.058218955993652</v>
+        <v>1.257707357406616</v>
       </c>
       <c r="J3" t="n">
-        <v>3.193142175674438</v>
+        <v>3.428412199020386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.81432056427002</v>
+        <v>4.988780975341797</v>
       </c>
       <c r="B4" t="n">
-        <v>1.013010621070862</v>
+        <v>1.339049100875854</v>
       </c>
       <c r="C4" t="n">
-        <v>1.191341519355774</v>
+        <v>1.027174234390259</v>
       </c>
       <c r="D4" t="n">
-        <v>1.523341178894043</v>
+        <v>1.024603843688965</v>
       </c>
       <c r="E4" t="n">
-        <v>3.970080614089966</v>
+        <v>3.45398473739624</v>
       </c>
       <c r="F4" t="n">
-        <v>1.017806053161621</v>
+        <v>4.160834312438965</v>
       </c>
       <c r="G4" t="n">
-        <v>1.153630375862122</v>
+        <v>1.092161059379578</v>
       </c>
       <c r="H4" t="n">
-        <v>2.014208793640137</v>
+        <v>4.736607551574707</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06281852722168</v>
+        <v>1.352078437805176</v>
       </c>
       <c r="J4" t="n">
-        <v>2.010627746582031</v>
+        <v>4.485864639282227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.071037292480469</v>
+        <v>1.807692646980286</v>
       </c>
       <c r="B5" t="n">
-        <v>1.046423435211182</v>
+        <v>1.002679824829102</v>
       </c>
       <c r="C5" t="n">
-        <v>2.000411510467529</v>
+        <v>3.269027709960938</v>
       </c>
       <c r="D5" t="n">
-        <v>1.204464197158813</v>
+        <v>1.009209871292114</v>
       </c>
       <c r="E5" t="n">
-        <v>2.340309619903564</v>
+        <v>2.748208045959473</v>
       </c>
       <c r="F5" t="n">
-        <v>1.927243828773499</v>
+        <v>1.703258514404297</v>
       </c>
       <c r="G5" t="n">
-        <v>1.003650546073914</v>
+        <v>3.212805032730103</v>
       </c>
       <c r="H5" t="n">
-        <v>4.901889801025391</v>
+        <v>4.98523473739624</v>
       </c>
       <c r="I5" t="n">
-        <v>1.008897185325623</v>
+        <v>1.571680545806885</v>
       </c>
       <c r="J5" t="n">
-        <v>3.037704467773438</v>
+        <v>4.444792747497559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.956940650939941</v>
+        <v>1.267817735671997</v>
       </c>
       <c r="B6" t="n">
-        <v>2.196496963500977</v>
+        <v>4.098378658294678</v>
       </c>
       <c r="C6" t="n">
-        <v>4.01207447052002</v>
+        <v>4.167904853820801</v>
       </c>
       <c r="D6" t="n">
-        <v>1.010438561439514</v>
+        <v>4.095829010009766</v>
       </c>
       <c r="E6" t="n">
-        <v>4.010591983795166</v>
+        <v>4.331612586975098</v>
       </c>
       <c r="F6" t="n">
-        <v>1.029597520828247</v>
+        <v>3.643813371658325</v>
       </c>
       <c r="G6" t="n">
-        <v>4.161048412322998</v>
+        <v>4.178138732910156</v>
       </c>
       <c r="H6" t="n">
-        <v>4.057469844818115</v>
+        <v>1.677956819534302</v>
       </c>
       <c r="I6" t="n">
-        <v>4.644775867462158</v>
+        <v>4.948423385620117</v>
       </c>
       <c r="J6" t="n">
-        <v>1.143594026565552</v>
+        <v>2.252606868743896</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.756928443908691</v>
+        <v>2.188210964202881</v>
       </c>
       <c r="B2" t="n">
-        <v>4.308184623718262</v>
+        <v>3.204045534133911</v>
       </c>
       <c r="C2" t="n">
-        <v>3.458043575286865</v>
+        <v>2.476373672485352</v>
       </c>
       <c r="D2" t="n">
-        <v>4.515835762023926</v>
+        <v>3.623034715652466</v>
       </c>
       <c r="E2" t="n">
-        <v>1.907290935516357</v>
+        <v>1.948923826217651</v>
       </c>
       <c r="F2" t="n">
-        <v>2.034539699554443</v>
+        <v>3.353243589401245</v>
       </c>
       <c r="G2" t="n">
-        <v>1.376038432121277</v>
+        <v>3.195701837539673</v>
       </c>
       <c r="H2" t="n">
-        <v>1.650940656661987</v>
+        <v>3.483727931976318</v>
       </c>
       <c r="I2" t="n">
-        <v>2.138889789581299</v>
+        <v>2.938684463500977</v>
       </c>
       <c r="J2" t="n">
-        <v>1.312796354293823</v>
+        <v>3.737272262573242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.285240173339844</v>
+        <v>2.269550800323486</v>
       </c>
       <c r="B3" t="n">
-        <v>2.425625324249268</v>
+        <v>3.535350322723389</v>
       </c>
       <c r="C3" t="n">
-        <v>3.936080694198608</v>
+        <v>4.138487815856934</v>
       </c>
       <c r="D3" t="n">
-        <v>3.266763925552368</v>
+        <v>3.719904184341431</v>
       </c>
       <c r="E3" t="n">
-        <v>4.399188041687012</v>
+        <v>2.362110137939453</v>
       </c>
       <c r="F3" t="n">
-        <v>4.189265251159668</v>
+        <v>3.62073016166687</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41096293926239</v>
+        <v>3.990237951278687</v>
       </c>
       <c r="H3" t="n">
-        <v>1.501993417739868</v>
+        <v>1.904608249664307</v>
       </c>
       <c r="I3" t="n">
-        <v>1.257707357406616</v>
+        <v>3.988659143447876</v>
       </c>
       <c r="J3" t="n">
-        <v>3.428412199020386</v>
+        <v>1.863792896270752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.988780975341797</v>
+        <v>4.390296459197998</v>
       </c>
       <c r="B4" t="n">
-        <v>1.339049100875854</v>
+        <v>2.607480049133301</v>
       </c>
       <c r="C4" t="n">
-        <v>1.027174234390259</v>
+        <v>1.69977593421936</v>
       </c>
       <c r="D4" t="n">
-        <v>1.024603843688965</v>
+        <v>3.334832668304443</v>
       </c>
       <c r="E4" t="n">
-        <v>3.45398473739624</v>
+        <v>3.931730985641479</v>
       </c>
       <c r="F4" t="n">
-        <v>4.160834312438965</v>
+        <v>1.79814887046814</v>
       </c>
       <c r="G4" t="n">
-        <v>1.092161059379578</v>
+        <v>1.724115967750549</v>
       </c>
       <c r="H4" t="n">
-        <v>4.736607551574707</v>
+        <v>2.671780109405518</v>
       </c>
       <c r="I4" t="n">
-        <v>1.352078437805176</v>
+        <v>2.012143850326538</v>
       </c>
       <c r="J4" t="n">
-        <v>4.485864639282227</v>
+        <v>1.954625487327576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.807692646980286</v>
+        <v>1.832637310028076</v>
       </c>
       <c r="B5" t="n">
-        <v>1.002679824829102</v>
+        <v>2.545563936233521</v>
       </c>
       <c r="C5" t="n">
-        <v>3.269027709960938</v>
+        <v>2.516764640808105</v>
       </c>
       <c r="D5" t="n">
-        <v>1.009209871292114</v>
+        <v>2.286365985870361</v>
       </c>
       <c r="E5" t="n">
-        <v>2.748208045959473</v>
+        <v>3.217397451400757</v>
       </c>
       <c r="F5" t="n">
-        <v>1.703258514404297</v>
+        <v>2.288145780563354</v>
       </c>
       <c r="G5" t="n">
-        <v>3.212805032730103</v>
+        <v>4.504193305969238</v>
       </c>
       <c r="H5" t="n">
-        <v>4.98523473739624</v>
+        <v>4.370476722717285</v>
       </c>
       <c r="I5" t="n">
-        <v>1.571680545806885</v>
+        <v>3.413412094116211</v>
       </c>
       <c r="J5" t="n">
-        <v>4.444792747497559</v>
+        <v>3.479308843612671</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.267817735671997</v>
+        <v>2.694761753082275</v>
       </c>
       <c r="B6" t="n">
-        <v>4.098378658294678</v>
+        <v>2.426161289215088</v>
       </c>
       <c r="C6" t="n">
-        <v>4.167904853820801</v>
+        <v>4.237673759460449</v>
       </c>
       <c r="D6" t="n">
-        <v>4.095829010009766</v>
+        <v>2.035133361816406</v>
       </c>
       <c r="E6" t="n">
-        <v>4.331612586975098</v>
+        <v>3.912618637084961</v>
       </c>
       <c r="F6" t="n">
-        <v>3.643813371658325</v>
+        <v>4.230142116546631</v>
       </c>
       <c r="G6" t="n">
-        <v>4.178138732910156</v>
+        <v>4.006641387939453</v>
       </c>
       <c r="H6" t="n">
-        <v>1.677956819534302</v>
+        <v>3.596497058868408</v>
       </c>
       <c r="I6" t="n">
-        <v>4.948423385620117</v>
+        <v>4.431846141815186</v>
       </c>
       <c r="J6" t="n">
-        <v>2.252606868743896</v>
+        <v>3.232250928878784</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.188210964202881</v>
+        <v>2.769887685775757</v>
       </c>
       <c r="B2" t="n">
-        <v>3.204045534133911</v>
+        <v>2.835119247436523</v>
       </c>
       <c r="C2" t="n">
-        <v>2.476373672485352</v>
+        <v>2.61908745765686</v>
       </c>
       <c r="D2" t="n">
-        <v>3.623034715652466</v>
+        <v>3.376166582107544</v>
       </c>
       <c r="E2" t="n">
-        <v>1.948923826217651</v>
+        <v>1.975325703620911</v>
       </c>
       <c r="F2" t="n">
-        <v>3.353243589401245</v>
+        <v>1.946723699569702</v>
       </c>
       <c r="G2" t="n">
-        <v>3.195701837539673</v>
+        <v>1.833373069763184</v>
       </c>
       <c r="H2" t="n">
-        <v>3.483727931976318</v>
+        <v>2.997513771057129</v>
       </c>
       <c r="I2" t="n">
-        <v>2.938684463500977</v>
+        <v>2.037049770355225</v>
       </c>
       <c r="J2" t="n">
-        <v>3.737272262573242</v>
+        <v>2.484293460845947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.269550800323486</v>
+        <v>2.168310165405273</v>
       </c>
       <c r="B3" t="n">
-        <v>3.535350322723389</v>
+        <v>2.355754375457764</v>
       </c>
       <c r="C3" t="n">
-        <v>4.138487815856934</v>
+        <v>3.494408845901489</v>
       </c>
       <c r="D3" t="n">
-        <v>3.719904184341431</v>
+        <v>3.587615251541138</v>
       </c>
       <c r="E3" t="n">
-        <v>2.362110137939453</v>
+        <v>2.441757678985596</v>
       </c>
       <c r="F3" t="n">
-        <v>3.62073016166687</v>
+        <v>3.891925811767578</v>
       </c>
       <c r="G3" t="n">
-        <v>3.990237951278687</v>
+        <v>2.486427307128906</v>
       </c>
       <c r="H3" t="n">
-        <v>1.904608249664307</v>
+        <v>1.868514776229858</v>
       </c>
       <c r="I3" t="n">
-        <v>3.988659143447876</v>
+        <v>2.417128562927246</v>
       </c>
       <c r="J3" t="n">
-        <v>1.863792896270752</v>
+        <v>3.606000423431396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.390296459197998</v>
+        <v>4.571077346801758</v>
       </c>
       <c r="B4" t="n">
-        <v>2.607480049133301</v>
+        <v>2.326577186584473</v>
       </c>
       <c r="C4" t="n">
-        <v>1.69977593421936</v>
+        <v>1.573082208633423</v>
       </c>
       <c r="D4" t="n">
-        <v>3.334832668304443</v>
+        <v>3.809976816177368</v>
       </c>
       <c r="E4" t="n">
-        <v>3.931730985641479</v>
+        <v>4.574024677276611</v>
       </c>
       <c r="F4" t="n">
-        <v>1.79814887046814</v>
+        <v>1.343364834785461</v>
       </c>
       <c r="G4" t="n">
-        <v>1.724115967750549</v>
+        <v>1.329835295677185</v>
       </c>
       <c r="H4" t="n">
-        <v>2.671780109405518</v>
+        <v>2.493903160095215</v>
       </c>
       <c r="I4" t="n">
-        <v>2.012143850326538</v>
+        <v>1.946411848068237</v>
       </c>
       <c r="J4" t="n">
-        <v>1.954625487327576</v>
+        <v>3.816429853439331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.832637310028076</v>
+        <v>3.567672252655029</v>
       </c>
       <c r="B5" t="n">
-        <v>2.545563936233521</v>
+        <v>1.303946733474731</v>
       </c>
       <c r="C5" t="n">
-        <v>2.516764640808105</v>
+        <v>2.782320499420166</v>
       </c>
       <c r="D5" t="n">
-        <v>2.286365985870361</v>
+        <v>1.242759704589844</v>
       </c>
       <c r="E5" t="n">
-        <v>3.217397451400757</v>
+        <v>3.14418625831604</v>
       </c>
       <c r="F5" t="n">
-        <v>2.288145780563354</v>
+        <v>1.447993755340576</v>
       </c>
       <c r="G5" t="n">
-        <v>4.504193305969238</v>
+        <v>2.487653732299805</v>
       </c>
       <c r="H5" t="n">
-        <v>4.370476722717285</v>
+        <v>4.498239040374756</v>
       </c>
       <c r="I5" t="n">
-        <v>3.413412094116211</v>
+        <v>2.311935901641846</v>
       </c>
       <c r="J5" t="n">
-        <v>3.479308843612671</v>
+        <v>3.473189830780029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.694761753082275</v>
+        <v>2.556671142578125</v>
       </c>
       <c r="B6" t="n">
-        <v>2.426161289215088</v>
+        <v>4.081307411193848</v>
       </c>
       <c r="C6" t="n">
-        <v>4.237673759460449</v>
+        <v>4.33871603012085</v>
       </c>
       <c r="D6" t="n">
-        <v>2.035133361816406</v>
+        <v>1.556135773658752</v>
       </c>
       <c r="E6" t="n">
-        <v>3.912618637084961</v>
+        <v>3.890190601348877</v>
       </c>
       <c r="F6" t="n">
-        <v>4.230142116546631</v>
+        <v>1.755349159240723</v>
       </c>
       <c r="G6" t="n">
-        <v>4.006641387939453</v>
+        <v>3.518297910690308</v>
       </c>
       <c r="H6" t="n">
-        <v>3.596497058868408</v>
+        <v>4.296317100524902</v>
       </c>
       <c r="I6" t="n">
-        <v>4.431846141815186</v>
+        <v>4.569604873657227</v>
       </c>
       <c r="J6" t="n">
-        <v>3.232250928878784</v>
+        <v>3.996552228927612</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.769887685775757</v>
+        <v>2.307134866714478</v>
       </c>
       <c r="B2" t="n">
-        <v>2.835119247436523</v>
+        <v>3.087188243865967</v>
       </c>
       <c r="C2" t="n">
-        <v>2.61908745765686</v>
+        <v>3.467571973800659</v>
       </c>
       <c r="D2" t="n">
-        <v>3.376166582107544</v>
+        <v>3.969028234481812</v>
       </c>
       <c r="E2" t="n">
-        <v>1.975325703620911</v>
+        <v>2.512957572937012</v>
       </c>
       <c r="F2" t="n">
-        <v>1.946723699569702</v>
+        <v>3.485721588134766</v>
       </c>
       <c r="G2" t="n">
-        <v>1.833373069763184</v>
+        <v>1.54756498336792</v>
       </c>
       <c r="H2" t="n">
-        <v>2.997513771057129</v>
+        <v>3.60342001914978</v>
       </c>
       <c r="I2" t="n">
-        <v>2.037049770355225</v>
+        <v>2.047837495803833</v>
       </c>
       <c r="J2" t="n">
-        <v>2.484293460845947</v>
+        <v>2.889023303985596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.168310165405273</v>
+        <v>1.743977069854736</v>
       </c>
       <c r="B3" t="n">
-        <v>2.355754375457764</v>
+        <v>3.641158819198608</v>
       </c>
       <c r="C3" t="n">
-        <v>3.494408845901489</v>
+        <v>3.896099805831909</v>
       </c>
       <c r="D3" t="n">
-        <v>3.587615251541138</v>
+        <v>3.851822376251221</v>
       </c>
       <c r="E3" t="n">
-        <v>2.441757678985596</v>
+        <v>2.666038751602173</v>
       </c>
       <c r="F3" t="n">
-        <v>3.891925811767578</v>
+        <v>4.011987686157227</v>
       </c>
       <c r="G3" t="n">
-        <v>2.486427307128906</v>
+        <v>3.248913288116455</v>
       </c>
       <c r="H3" t="n">
-        <v>1.868514776229858</v>
+        <v>1.75916314125061</v>
       </c>
       <c r="I3" t="n">
-        <v>2.417128562927246</v>
+        <v>1.936157703399658</v>
       </c>
       <c r="J3" t="n">
-        <v>3.606000423431396</v>
+        <v>2.306764125823975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.571077346801758</v>
+        <v>4.04973316192627</v>
       </c>
       <c r="B4" t="n">
-        <v>2.326577186584473</v>
+        <v>2.879133224487305</v>
       </c>
       <c r="C4" t="n">
-        <v>1.573082208633423</v>
+        <v>1.17398726940155</v>
       </c>
       <c r="D4" t="n">
-        <v>3.809976816177368</v>
+        <v>2.880641460418701</v>
       </c>
       <c r="E4" t="n">
-        <v>4.574024677276611</v>
+        <v>4.644614219665527</v>
       </c>
       <c r="F4" t="n">
-        <v>1.343364834785461</v>
+        <v>2.49384593963623</v>
       </c>
       <c r="G4" t="n">
-        <v>1.329835295677185</v>
+        <v>1.478936791419983</v>
       </c>
       <c r="H4" t="n">
-        <v>2.493903160095215</v>
+        <v>3.199098348617554</v>
       </c>
       <c r="I4" t="n">
-        <v>1.946411848068237</v>
+        <v>2.014675855636597</v>
       </c>
       <c r="J4" t="n">
-        <v>3.816429853439331</v>
+        <v>4.061085224151611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.567672252655029</v>
+        <v>2.536170959472656</v>
       </c>
       <c r="B5" t="n">
-        <v>1.303946733474731</v>
+        <v>1.831997156143188</v>
       </c>
       <c r="C5" t="n">
-        <v>2.782320499420166</v>
+        <v>4.047157287597656</v>
       </c>
       <c r="D5" t="n">
-        <v>1.242759704589844</v>
+        <v>1.813710927963257</v>
       </c>
       <c r="E5" t="n">
-        <v>3.14418625831604</v>
+        <v>1.833476305007935</v>
       </c>
       <c r="F5" t="n">
-        <v>1.447993755340576</v>
+        <v>2.071966886520386</v>
       </c>
       <c r="G5" t="n">
-        <v>2.487653732299805</v>
+        <v>3.061177015304565</v>
       </c>
       <c r="H5" t="n">
-        <v>4.498239040374756</v>
+        <v>4.035990715026855</v>
       </c>
       <c r="I5" t="n">
-        <v>2.311935901641846</v>
+        <v>3.675343990325928</v>
       </c>
       <c r="J5" t="n">
-        <v>3.473189830780029</v>
+        <v>3.210190773010254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.556671142578125</v>
+        <v>2.859833240509033</v>
       </c>
       <c r="B6" t="n">
-        <v>4.081307411193848</v>
+        <v>3.410425901412964</v>
       </c>
       <c r="C6" t="n">
-        <v>4.33871603012085</v>
+        <v>3.33986496925354</v>
       </c>
       <c r="D6" t="n">
-        <v>1.556135773658752</v>
+        <v>2.631946086883545</v>
       </c>
       <c r="E6" t="n">
-        <v>3.890190601348877</v>
+        <v>4.114322185516357</v>
       </c>
       <c r="F6" t="n">
-        <v>1.755349159240723</v>
+        <v>3.246522426605225</v>
       </c>
       <c r="G6" t="n">
-        <v>3.518297910690308</v>
+        <v>3.051788568496704</v>
       </c>
       <c r="H6" t="n">
-        <v>4.296317100524902</v>
+        <v>1.922885775566101</v>
       </c>
       <c r="I6" t="n">
-        <v>4.569604873657227</v>
+        <v>2.3890380859375</v>
       </c>
       <c r="J6" t="n">
-        <v>3.996552228927612</v>
+        <v>2.957391738891602</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-nao_federado.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.307134866714478</v>
+        <v>2.684630870819092</v>
       </c>
       <c r="B2" t="n">
-        <v>3.087188243865967</v>
+        <v>1.922057509422302</v>
       </c>
       <c r="C2" t="n">
-        <v>3.467571973800659</v>
+        <v>2.532467126846313</v>
       </c>
       <c r="D2" t="n">
-        <v>3.969028234481812</v>
+        <v>3.954424142837524</v>
       </c>
       <c r="E2" t="n">
-        <v>2.512957572937012</v>
+        <v>1.645488262176514</v>
       </c>
       <c r="F2" t="n">
-        <v>3.485721588134766</v>
+        <v>2.084673881530762</v>
       </c>
       <c r="G2" t="n">
-        <v>1.54756498336792</v>
+        <v>1.473205089569092</v>
       </c>
       <c r="H2" t="n">
-        <v>3.60342001914978</v>
+        <v>4.013075351715088</v>
       </c>
       <c r="I2" t="n">
-        <v>2.047837495803833</v>
+        <v>1.560240745544434</v>
       </c>
       <c r="J2" t="n">
-        <v>2.889023303985596</v>
+        <v>3.694891691207886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.743977069854736</v>
+        <v>2.069308519363403</v>
       </c>
       <c r="B3" t="n">
-        <v>3.641158819198608</v>
+        <v>3.693876504898071</v>
       </c>
       <c r="C3" t="n">
-        <v>3.896099805831909</v>
+        <v>4.013803005218506</v>
       </c>
       <c r="D3" t="n">
-        <v>3.851822376251221</v>
+        <v>3.333508491516113</v>
       </c>
       <c r="E3" t="n">
-        <v>2.666038751602173</v>
+        <v>2.942499160766602</v>
       </c>
       <c r="F3" t="n">
-        <v>4.011987686157227</v>
+        <v>4.077337265014648</v>
       </c>
       <c r="G3" t="n">
-        <v>3.248913288116455</v>
+        <v>2.783060073852539</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75916314125061</v>
+        <v>1.986190557479858</v>
       </c>
       <c r="I3" t="n">
-        <v>1.936157703399658</v>
+        <v>1.464731693267822</v>
       </c>
       <c r="J3" t="n">
-        <v>2.306764125823975</v>
+        <v>2.366520404815674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.04973316192627</v>
+        <v>4.617245674133301</v>
       </c>
       <c r="B4" t="n">
-        <v>2.879133224487305</v>
+        <v>1.892202854156494</v>
       </c>
       <c r="C4" t="n">
-        <v>1.17398726940155</v>
+        <v>1.536106109619141</v>
       </c>
       <c r="D4" t="n">
-        <v>2.880641460418701</v>
+        <v>3.887731790542603</v>
       </c>
       <c r="E4" t="n">
-        <v>4.644614219665527</v>
+        <v>4.284157752990723</v>
       </c>
       <c r="F4" t="n">
-        <v>2.49384593963623</v>
+        <v>2.918554306030273</v>
       </c>
       <c r="G4" t="n">
-        <v>1.478936791419983</v>
+        <v>1.440070033073425</v>
       </c>
       <c r="H4" t="n">
-        <v>3.199098348617554</v>
+        <v>1.566004276275635</v>
       </c>
       <c r="I4" t="n">
-        <v>2.014675855636597</v>
+        <v>2.253408670425415</v>
       </c>
       <c r="J4" t="n">
-        <v>4.061085224151611</v>
+        <v>2.540804862976074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.536170959472656</v>
+        <v>2.290126800537109</v>
       </c>
       <c r="B5" t="n">
-        <v>1.831997156143188</v>
+        <v>1.368429183959961</v>
       </c>
       <c r="C5" t="n">
-        <v>4.047157287597656</v>
+        <v>2.433292388916016</v>
       </c>
       <c r="D5" t="n">
-        <v>1.813710927963257</v>
+        <v>1.886293888092041</v>
       </c>
       <c r="E5" t="n">
-        <v>1.833476305007935</v>
+        <v>1.741191983222961</v>
       </c>
       <c r="F5" t="n">
-        <v>2.071966886520386</v>
+        <v>1.906493425369263</v>
       </c>
       <c r="G5" t="n">
-        <v>3.061177015304565</v>
+        <v>2.888423681259155</v>
       </c>
       <c r="H5" t="n">
-        <v>4.035990715026855</v>
+        <v>4.728432655334473</v>
       </c>
       <c r="I5" t="n">
-        <v>3.675343990325928</v>
+        <v>2.783730268478394</v>
       </c>
       <c r="J5" t="n">
-        <v>3.210190773010254</v>
+        <v>2.506593942642212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.859833240509033</v>
+        <v>2.484221935272217</v>
       </c>
       <c r="B6" t="n">
-        <v>3.410425901412964</v>
+        <v>2.873661041259766</v>
       </c>
       <c r="C6" t="n">
-        <v>3.33986496925354</v>
+        <v>2.347818851470947</v>
       </c>
       <c r="D6" t="n">
-        <v>2.631946086883545</v>
+        <v>2.036095380783081</v>
       </c>
       <c r="E6" t="n">
-        <v>4.114322185516357</v>
+        <v>4.444271087646484</v>
       </c>
       <c r="F6" t="n">
-        <v>3.246522426605225</v>
+        <v>4.146027565002441</v>
       </c>
       <c r="G6" t="n">
-        <v>3.051788568496704</v>
+        <v>4.591258525848389</v>
       </c>
       <c r="H6" t="n">
-        <v>1.922885775566101</v>
+        <v>2.095885276794434</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3890380859375</v>
+        <v>4.62399959564209</v>
       </c>
       <c r="J6" t="n">
-        <v>2.957391738891602</v>
+        <v>1.854354381561279</v>
       </c>
     </row>
   </sheetData>
